--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543025.0881703061</v>
+        <v>540564.1719518614</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.3698596490246</v>
+        <v>337.3698596490248</v>
       </c>
       <c r="C11" t="n">
-        <v>61.39761854403241</v>
+        <v>225.182370296871</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>309.3190596062272</v>
       </c>
       <c r="E11" t="n">
-        <v>336.5663880578059</v>
+        <v>336.566388057806</v>
       </c>
       <c r="F11" t="n">
-        <v>361.5120637272555</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>365.8119104385893</v>
+        <v>365.8119104385895</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.011713299731127</v>
+        <v>6.011713299731234</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.61560571941715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.6666032903773</v>
       </c>
       <c r="U11" t="n">
-        <v>205.6515232884134</v>
+        <v>205.6515232884136</v>
       </c>
       <c r="V11" t="n">
-        <v>282.388276455679</v>
+        <v>282.3882764556791</v>
       </c>
       <c r="W11" t="n">
-        <v>303.8769867029571</v>
+        <v>303.8769867029573</v>
       </c>
       <c r="X11" t="n">
-        <v>324.3671186640131</v>
+        <v>324.3671186640133</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.8739566415977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,19 +1452,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>102.081083550183</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>99.70523037892798</v>
+        <v>99.70523037892815</v>
       </c>
       <c r="G12" t="n">
-        <v>89.77147837803373</v>
+        <v>89.7714783780339</v>
       </c>
       <c r="H12" t="n">
-        <v>81.12518151709926</v>
+        <v>90.91026437190156</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S12" t="n">
         <v>130.6694850336474</v>
       </c>
       <c r="T12" t="n">
-        <v>191.2647103952927</v>
+        <v>172.8933325516439</v>
       </c>
       <c r="U12" t="n">
         <v>225.7961151881642</v>
       </c>
       <c r="V12" t="n">
-        <v>187.4366051349694</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>206.3310011464637</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>160.4090031890217</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.4679981674814</v>
+        <v>134.4679981674816</v>
       </c>
       <c r="C13" t="n">
-        <v>121.8828390841719</v>
+        <v>121.8828390841721</v>
       </c>
       <c r="D13" t="n">
-        <v>103.2514910037565</v>
+        <v>97.387830264592</v>
       </c>
       <c r="E13" t="n">
-        <v>39.77636091415904</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>100.0570660084755</v>
       </c>
       <c r="G13" t="n">
-        <v>120.7758367208646</v>
+        <v>120.7758367208648</v>
       </c>
       <c r="H13" t="n">
-        <v>100.4046896799908</v>
+        <v>100.404689679991</v>
       </c>
       <c r="I13" t="n">
-        <v>54.41704435515382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.6944962532427</v>
+        <v>48.69449625324282</v>
       </c>
       <c r="S13" t="n">
-        <v>146.3919349810979</v>
+        <v>146.391934981098</v>
       </c>
       <c r="T13" t="n">
-        <v>174.672102933144</v>
+        <v>174.6721029331441</v>
       </c>
       <c r="U13" t="n">
-        <v>240.8540749444093</v>
+        <v>240.8540749444095</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7736613093721</v>
+        <v>206.7736613093723</v>
       </c>
       <c r="W13" t="n">
-        <v>241.1590163221351</v>
+        <v>241.1590163221353</v>
       </c>
       <c r="X13" t="n">
-        <v>180.3456733745813</v>
+        <v>180.3456733745814</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.2206713376389</v>
+        <v>173.2206713376391</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.3698596490246</v>
+        <v>337.3698596490249</v>
       </c>
       <c r="C14" t="n">
-        <v>319.9089097565517</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>309.319059606227</v>
+        <v>309.3190596062273</v>
       </c>
       <c r="E14" t="n">
-        <v>336.5663880578059</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>361.5120637272555</v>
+        <v>361.5120637272558</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>251.8467681091836</v>
+        <v>251.8467681091839</v>
       </c>
       <c r="I14" t="n">
-        <v>6.011713299731127</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.61560571941702</v>
+        <v>69.61560571941723</v>
       </c>
       <c r="T14" t="n">
-        <v>159.6666032903771</v>
+        <v>139.0061969053351</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.6515232884137</v>
       </c>
       <c r="V14" t="n">
-        <v>145.7663388865606</v>
+        <v>282.3882764556793</v>
       </c>
       <c r="W14" t="n">
-        <v>303.8769867029571</v>
+        <v>303.8769867029574</v>
       </c>
       <c r="X14" t="n">
-        <v>324.3671186640131</v>
+        <v>324.3671186640134</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>340.8739566415979</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.1618058062175</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>102.0810835501831</v>
       </c>
       <c r="E15" t="n">
-        <v>112.281098440945</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>99.70523037892823</v>
       </c>
       <c r="G15" t="n">
-        <v>135.1354603924896</v>
+        <v>89.77147837803399</v>
       </c>
       <c r="H15" t="n">
         <v>90.91026437190156</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.586294988847953</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S15" t="n">
         <v>130.6694850336474</v>
       </c>
       <c r="T15" t="n">
-        <v>145.9007283808368</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U15" t="n">
-        <v>180.4321331737083</v>
+        <v>225.7961151881642</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>209.8242325548135</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>160.3187137628485</v>
+        <v>160.3187137628487</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.4679981674814</v>
+        <v>134.4679981674817</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8828390841719</v>
+        <v>121.8828390841722</v>
       </c>
       <c r="D16" t="n">
-        <v>103.2514910037565</v>
+        <v>103.2514910037567</v>
       </c>
       <c r="E16" t="n">
-        <v>101.0699806321133</v>
+        <v>101.0699806321135</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0570660084753</v>
+        <v>100.0570660084756</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7758367208646</v>
+        <v>13.8421953495837</v>
       </c>
       <c r="H16" t="n">
-        <v>100.4046896799908</v>
+        <v>100.4046896799911</v>
       </c>
       <c r="I16" t="n">
-        <v>54.41704435515382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.6944962532427</v>
+        <v>48.69449625324292</v>
       </c>
       <c r="S16" t="n">
-        <v>146.3919349810979</v>
+        <v>146.3919349810981</v>
       </c>
       <c r="T16" t="n">
-        <v>174.672102933144</v>
+        <v>174.6721029331442</v>
       </c>
       <c r="U16" t="n">
-        <v>240.8540749444093</v>
+        <v>240.8540749444095</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7736613093721</v>
+        <v>206.7736613093724</v>
       </c>
       <c r="W16" t="n">
-        <v>241.1590163221351</v>
+        <v>241.1590163221354</v>
       </c>
       <c r="X16" t="n">
-        <v>18.99498764815206</v>
+        <v>180.3456733745815</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.2206713376389</v>
+        <v>173.2206713376391</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245.3025883159396</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>272.9337731379591</v>
+        <v>272.9337731379592</v>
       </c>
       <c r="D17" t="n">
-        <v>262.3439229876345</v>
+        <v>262.3439229876346</v>
       </c>
       <c r="E17" t="n">
-        <v>289.5912514392133</v>
+        <v>289.5912514392135</v>
       </c>
       <c r="F17" t="n">
-        <v>314.536927108663</v>
+        <v>314.5369271086631</v>
       </c>
       <c r="G17" t="n">
-        <v>318.8367738199967</v>
+        <v>223.9357948727372</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>204.8716314905912</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>22.64046910082456</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>112.6914666717847</v>
       </c>
       <c r="U17" t="n">
-        <v>158.6763866698208</v>
+        <v>158.676386669821</v>
       </c>
       <c r="V17" t="n">
-        <v>235.4131398370864</v>
+        <v>235.4131398370866</v>
       </c>
       <c r="W17" t="n">
-        <v>256.9018500843645</v>
+        <v>256.9018500843647</v>
       </c>
       <c r="X17" t="n">
-        <v>277.3919820454205</v>
+        <v>277.3919820454207</v>
       </c>
       <c r="Y17" t="n">
-        <v>293.8988200230051</v>
+        <v>293.8988200230053</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1923,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>80.36938035526725</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>55.10594693159044</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4960118200259</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1941,7 @@
         <v>90.91026437190156</v>
       </c>
       <c r="I18" t="n">
-        <v>23.49937276245689</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.586294988847953</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S18" t="n">
-        <v>92.02104363581388</v>
+        <v>130.6694850336474</v>
       </c>
       <c r="T18" t="n">
         <v>191.2647103952927</v>
@@ -1980,10 +1980,10 @@
         <v>225.7961151881642</v>
       </c>
       <c r="V18" t="n">
-        <v>140.4614685163768</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>159.3558645278713</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.49286154888881</v>
+        <v>87.49286154888898</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90770246557935</v>
+        <v>74.90770246557952</v>
       </c>
       <c r="D19" t="n">
-        <v>56.27635438516387</v>
+        <v>56.27635438516404</v>
       </c>
       <c r="E19" t="n">
-        <v>54.09484401352069</v>
+        <v>54.09484401352086</v>
       </c>
       <c r="F19" t="n">
-        <v>53.08192938988276</v>
+        <v>53.08192938988293</v>
       </c>
       <c r="G19" t="n">
-        <v>73.80070010227202</v>
+        <v>73.80070010227219</v>
       </c>
       <c r="H19" t="n">
-        <v>53.42955306139825</v>
+        <v>53.42955306139841</v>
       </c>
       <c r="I19" t="n">
-        <v>7.441907736561227</v>
+        <v>7.441907736561376</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.719359634650118</v>
+        <v>1.719359634650246</v>
       </c>
       <c r="S19" t="n">
-        <v>99.41679836250532</v>
+        <v>99.41679836250547</v>
       </c>
       <c r="T19" t="n">
-        <v>127.6969663145514</v>
+        <v>127.6969663145515</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8789383258167</v>
+        <v>193.8789383258168</v>
       </c>
       <c r="V19" t="n">
-        <v>159.7985246907795</v>
+        <v>159.7985246907797</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1838797035425</v>
+        <v>194.1838797035427</v>
       </c>
       <c r="X19" t="n">
-        <v>133.3705367559887</v>
+        <v>133.3705367559888</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.2455347190463</v>
+        <v>126.2455347190465</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.3947230304321</v>
+        <v>290.3947230304323</v>
       </c>
       <c r="C20" t="n">
-        <v>272.9337731379591</v>
+        <v>272.9337731379592</v>
       </c>
       <c r="D20" t="n">
-        <v>262.3439229876345</v>
+        <v>262.3439229876346</v>
       </c>
       <c r="E20" t="n">
-        <v>289.5912514392133</v>
+        <v>289.5912514392135</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>314.5369271086631</v>
       </c>
       <c r="G20" t="n">
-        <v>318.8367738199967</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>204.871631490591</v>
+        <v>138.4127033328962</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>22.64046910082443</v>
+        <v>22.64046910082456</v>
       </c>
       <c r="T20" t="n">
-        <v>112.6914666717846</v>
+        <v>112.6914666717847</v>
       </c>
       <c r="U20" t="n">
-        <v>158.6763866698208</v>
+        <v>158.676386669821</v>
       </c>
       <c r="V20" t="n">
-        <v>164.6543649680563</v>
+        <v>235.4131398370866</v>
       </c>
       <c r="W20" t="n">
-        <v>256.9018500843645</v>
+        <v>256.9018500843647</v>
       </c>
       <c r="X20" t="n">
-        <v>277.3919820454205</v>
+        <v>277.3919820454207</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.8988200230051</v>
+        <v>293.8988200230053</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>65.30596182235263</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.586294988847953</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S21" t="n">
         <v>130.6694850336474</v>
       </c>
       <c r="T21" t="n">
-        <v>98.9255917622442</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U21" t="n">
         <v>225.7961151881642</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>216.2226642529036</v>
       </c>
       <c r="W21" t="n">
-        <v>235.1170602643964</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.49286154888881</v>
+        <v>87.49286154888898</v>
       </c>
       <c r="C22" t="n">
-        <v>74.90770246557935</v>
+        <v>74.90770246557952</v>
       </c>
       <c r="D22" t="n">
-        <v>56.27635438516387</v>
+        <v>56.27635438516404</v>
       </c>
       <c r="E22" t="n">
-        <v>54.09484401352069</v>
+        <v>54.09484401352086</v>
       </c>
       <c r="F22" t="n">
-        <v>53.08192938988276</v>
+        <v>53.08192938988293</v>
       </c>
       <c r="G22" t="n">
-        <v>73.80070010227202</v>
+        <v>73.80070010227219</v>
       </c>
       <c r="H22" t="n">
-        <v>53.42955306139825</v>
+        <v>53.42955306139841</v>
       </c>
       <c r="I22" t="n">
-        <v>7.441907736561227</v>
+        <v>7.441907736561376</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.719359634650118</v>
+        <v>1.719359634650246</v>
       </c>
       <c r="S22" t="n">
-        <v>99.41679836250532</v>
+        <v>99.41679836250547</v>
       </c>
       <c r="T22" t="n">
-        <v>127.6969663145514</v>
+        <v>127.6969663145515</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8789383258167</v>
+        <v>193.8789383258168</v>
       </c>
       <c r="V22" t="n">
-        <v>159.7985246907795</v>
+        <v>159.7985246907797</v>
       </c>
       <c r="W22" t="n">
-        <v>194.1838797035425</v>
+        <v>194.1838797035427</v>
       </c>
       <c r="X22" t="n">
-        <v>133.3705367559887</v>
+        <v>133.3705367559888</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.2455347190463</v>
+        <v>126.2455347190465</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.3947230304321</v>
+        <v>290.3947230304323</v>
       </c>
       <c r="C23" t="n">
-        <v>272.9337731379591</v>
+        <v>272.9337731379592</v>
       </c>
       <c r="D23" t="n">
-        <v>262.3439229876345</v>
+        <v>262.3439229876346</v>
       </c>
       <c r="E23" t="n">
-        <v>289.5912514392133</v>
+        <v>289.5912514392135</v>
       </c>
       <c r="F23" t="n">
-        <v>314.536927108663</v>
+        <v>314.5369271086631</v>
       </c>
       <c r="G23" t="n">
-        <v>318.582607020405</v>
+        <v>318.5826070204051</v>
       </c>
       <c r="H23" t="n">
-        <v>202.268645754272</v>
+        <v>202.2686457542721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.84864315512735</v>
+        <v>16.84864315512753</v>
       </c>
       <c r="T23" t="n">
-        <v>111.5788515065717</v>
+        <v>111.5788515065718</v>
       </c>
       <c r="U23" t="n">
-        <v>158.6560533258535</v>
+        <v>158.6560533258537</v>
       </c>
       <c r="V23" t="n">
-        <v>235.4131398370864</v>
+        <v>235.4131398370866</v>
       </c>
       <c r="W23" t="n">
-        <v>256.9018500843645</v>
+        <v>256.9018500843647</v>
       </c>
       <c r="X23" t="n">
-        <v>277.3919820454205</v>
+        <v>277.3919820454207</v>
       </c>
       <c r="Y23" t="n">
-        <v>293.8988200230051</v>
+        <v>293.8988200230053</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.49286154888881</v>
+        <v>87.49286154888898</v>
       </c>
       <c r="C25" t="n">
-        <v>74.90770246557935</v>
+        <v>74.90770246557952</v>
       </c>
       <c r="D25" t="n">
-        <v>56.27635438516387</v>
+        <v>56.27635438516404</v>
       </c>
       <c r="E25" t="n">
-        <v>54.09484401352069</v>
+        <v>54.09484401352086</v>
       </c>
       <c r="F25" t="n">
-        <v>53.08192938988276</v>
+        <v>53.08192938988293</v>
       </c>
       <c r="G25" t="n">
-        <v>73.68668962597974</v>
+        <v>73.68668962597991</v>
       </c>
       <c r="H25" t="n">
-        <v>52.4158962812723</v>
+        <v>52.41589628127247</v>
       </c>
       <c r="I25" t="n">
-        <v>4.013301776789611</v>
+        <v>4.013301776789795</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>97.42990669839341</v>
+        <v>97.42990669839358</v>
       </c>
       <c r="T25" t="n">
-        <v>127.2098306431207</v>
+        <v>127.2098306431209</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8727195725644</v>
+        <v>193.8727195725645</v>
       </c>
       <c r="V25" t="n">
-        <v>159.7985246907795</v>
+        <v>159.7985246907797</v>
       </c>
       <c r="W25" t="n">
-        <v>194.1838797035425</v>
+        <v>194.1838797035427</v>
       </c>
       <c r="X25" t="n">
-        <v>133.3705367559887</v>
+        <v>133.3705367559888</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.2455347190463</v>
+        <v>126.2455347190465</v>
       </c>
     </row>
     <row r="26">
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851032</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247745</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2883,7 +2883,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657072</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851116</v>
@@ -2922,7 +2922,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U30" t="n">
         <v>225.7871683969286</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.9994691657072</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851032</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247745</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
@@ -3487,7 +3487,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3825,13 +3825,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
         <v>89.59687541851116</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052284</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247745</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383226</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052284</v>
+        <v>69.5621008705228</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010732</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846414</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482621</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092319</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621575</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1203.040866311532</v>
+        <v>1315.759803313361</v>
       </c>
       <c r="C11" t="n">
-        <v>1141.023069802408</v>
+        <v>1088.302863619552</v>
       </c>
       <c r="D11" t="n">
-        <v>1141.023069802408</v>
+        <v>775.8593690678071</v>
       </c>
       <c r="E11" t="n">
-        <v>801.0570212591699</v>
+        <v>435.8933205245686</v>
       </c>
       <c r="F11" t="n">
-        <v>435.8933205245683</v>
+        <v>435.8933205245686</v>
       </c>
       <c r="G11" t="n">
-        <v>66.38634028356897</v>
+        <v>66.3863402835691</v>
       </c>
       <c r="H11" t="n">
-        <v>66.38634028356897</v>
+        <v>66.3863402835691</v>
       </c>
       <c r="I11" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J11" t="n">
-        <v>227.8366650533162</v>
+        <v>227.8366650533171</v>
       </c>
       <c r="K11" t="n">
-        <v>529.6483784099289</v>
+        <v>529.64837840993</v>
       </c>
       <c r="L11" t="n">
-        <v>940.9742587040278</v>
+        <v>940.9742587040296</v>
       </c>
       <c r="M11" t="n">
-        <v>1430.322991987625</v>
+        <v>1430.322991987627</v>
       </c>
       <c r="N11" t="n">
-        <v>1932.203707752933</v>
+        <v>1932.203707752936</v>
       </c>
       <c r="O11" t="n">
-        <v>2392.780174741102</v>
+        <v>2392.780174741105</v>
       </c>
       <c r="P11" t="n">
-        <v>2751.370532643385</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q11" t="n">
-        <v>2972.484210969447</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R11" t="n">
-        <v>3015.695130353643</v>
+        <v>3015.695130353645</v>
       </c>
       <c r="S11" t="n">
-        <v>3015.695130353643</v>
+        <v>2945.376336697668</v>
       </c>
       <c r="T11" t="n">
-        <v>3015.695130353643</v>
+        <v>2784.096939434661</v>
       </c>
       <c r="U11" t="n">
-        <v>2807.9663189512</v>
+        <v>2576.368128032223</v>
       </c>
       <c r="V11" t="n">
-        <v>2522.725635662635</v>
+        <v>2291.127444743658</v>
       </c>
       <c r="W11" t="n">
-        <v>2215.779184447527</v>
+        <v>1984.18099352855</v>
       </c>
       <c r="X11" t="n">
-        <v>1888.135630241453</v>
+        <v>1656.537439322477</v>
       </c>
       <c r="Y11" t="n">
-        <v>1543.818502320648</v>
+        <v>1656.537439322477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>816.2740392559783</v>
+        <v>780.3357572765308</v>
       </c>
       <c r="C12" t="n">
-        <v>641.8210099748513</v>
+        <v>605.8827279954038</v>
       </c>
       <c r="D12" t="n">
-        <v>492.8866003136001</v>
+        <v>502.7705223891583</v>
       </c>
       <c r="E12" t="n">
-        <v>333.6491453081446</v>
+        <v>343.5330673837028</v>
       </c>
       <c r="F12" t="n">
-        <v>232.9367913900355</v>
+        <v>242.8207134655936</v>
       </c>
       <c r="G12" t="n">
-        <v>142.2585304021226</v>
+        <v>152.1424524776805</v>
       </c>
       <c r="H12" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I12" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J12" t="n">
-        <v>141.2714653172482</v>
+        <v>141.2714653172484</v>
       </c>
       <c r="K12" t="n">
-        <v>357.795659444732</v>
+        <v>357.7956594447323</v>
       </c>
       <c r="L12" t="n">
-        <v>695.2617003494879</v>
+        <v>695.2617003494884</v>
       </c>
       <c r="M12" t="n">
         <v>1108.425521012771</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.93320351744</v>
+        <v>1546.933203517441</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.862268380988</v>
+        <v>1925.862268380989</v>
       </c>
       <c r="P12" t="n">
-        <v>2210.653183667179</v>
+        <v>2210.653183667181</v>
       </c>
       <c r="Q12" t="n">
-        <v>2351.109172113743</v>
+        <v>2351.109172113745</v>
       </c>
       <c r="R12" t="n">
-        <v>2351.109172113743</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S12" t="n">
-        <v>2219.119793291877</v>
+        <v>2210.446768050618</v>
       </c>
       <c r="T12" t="n">
-        <v>2025.923116124914</v>
+        <v>2035.807038200473</v>
       </c>
       <c r="U12" t="n">
-        <v>1797.846232096466</v>
+        <v>1807.730154172024</v>
       </c>
       <c r="V12" t="n">
-        <v>1608.516327919729</v>
+        <v>1572.578045940281</v>
       </c>
       <c r="W12" t="n">
-        <v>1400.101175246533</v>
+        <v>1318.34068921208</v>
       </c>
       <c r="X12" t="n">
-        <v>1192.249675041</v>
+        <v>1156.311393061553</v>
       </c>
       <c r="Y12" t="n">
-        <v>984.4893762760464</v>
+        <v>948.5510942965989</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>606.2818437768675</v>
+        <v>606.2818437768663</v>
       </c>
       <c r="C13" t="n">
-        <v>483.1678649039665</v>
+        <v>483.1678649039651</v>
       </c>
       <c r="D13" t="n">
-        <v>378.8734295466368</v>
+        <v>384.796319182155</v>
       </c>
       <c r="E13" t="n">
-        <v>338.6952872091024</v>
+        <v>384.796319182155</v>
       </c>
       <c r="F13" t="n">
-        <v>338.6952872091024</v>
+        <v>283.7285757392505</v>
       </c>
       <c r="G13" t="n">
-        <v>216.6994925415624</v>
+        <v>161.7327810717103</v>
       </c>
       <c r="H13" t="n">
-        <v>115.2806140769252</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I13" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J13" t="n">
-        <v>142.3669419811939</v>
+        <v>142.3669419811938</v>
       </c>
       <c r="K13" t="n">
-        <v>378.150982141243</v>
+        <v>378.1509821412428</v>
       </c>
       <c r="L13" t="n">
-        <v>722.8403768204944</v>
+        <v>722.840376820494</v>
       </c>
       <c r="M13" t="n">
         <v>1094.214820829984</v>
@@ -5224,7 +5224,7 @@
         <v>2119.297130009049</v>
       </c>
       <c r="S13" t="n">
-        <v>1971.426488614001</v>
+        <v>1971.426488614</v>
       </c>
       <c r="T13" t="n">
         <v>1794.990021004764</v>
@@ -5236,13 +5236,13 @@
         <v>1342.840792465591</v>
       </c>
       <c r="W13" t="n">
-        <v>1099.245826483637</v>
+        <v>1099.245826483636</v>
       </c>
       <c r="X13" t="n">
-        <v>917.0784796406255</v>
+        <v>917.0784796406244</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.1081045521013</v>
+        <v>742.1081045521001</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1661.49057185632</v>
+        <v>992.311772751181</v>
       </c>
       <c r="C14" t="n">
-        <v>1338.350258970914</v>
+        <v>992.311772751181</v>
       </c>
       <c r="D14" t="n">
-        <v>1025.90676441917</v>
+        <v>679.8682781994362</v>
       </c>
       <c r="E14" t="n">
-        <v>685.9407158759318</v>
+        <v>679.8682781994362</v>
       </c>
       <c r="F14" t="n">
-        <v>320.7770151413303</v>
+        <v>314.7045774648344</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7770151413303</v>
+        <v>314.7045774648344</v>
       </c>
       <c r="H14" t="n">
-        <v>66.38634028356898</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="I14" t="n">
-        <v>60.31390260707285</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="J14" t="n">
-        <v>227.8366650533162</v>
+        <v>227.8366650533164</v>
       </c>
       <c r="K14" t="n">
-        <v>529.6483784099289</v>
+        <v>529.6483784099293</v>
       </c>
       <c r="L14" t="n">
-        <v>940.9742587040278</v>
+        <v>940.9742587040291</v>
       </c>
       <c r="M14" t="n">
-        <v>1430.322991987625</v>
+        <v>1430.322991987626</v>
       </c>
       <c r="N14" t="n">
-        <v>1932.203707752933</v>
+        <v>1932.203707752934</v>
       </c>
       <c r="O14" t="n">
-        <v>2392.780174741102</v>
+        <v>2392.780174741103</v>
       </c>
       <c r="P14" t="n">
-        <v>2751.370532643385</v>
+        <v>2751.370532643386</v>
       </c>
       <c r="Q14" t="n">
-        <v>2972.484210969447</v>
+        <v>2972.484210969448</v>
       </c>
       <c r="R14" t="n">
-        <v>3015.695130353643</v>
+        <v>3015.695130353644</v>
       </c>
       <c r="S14" t="n">
-        <v>2945.376336697666</v>
+        <v>2945.376336697667</v>
       </c>
       <c r="T14" t="n">
-        <v>2784.096939434659</v>
+        <v>2804.966036793288</v>
       </c>
       <c r="U14" t="n">
-        <v>2784.096939434659</v>
+        <v>2597.237225390851</v>
       </c>
       <c r="V14" t="n">
-        <v>2636.858213286618</v>
+        <v>2311.996542102285</v>
       </c>
       <c r="W14" t="n">
-        <v>2329.91176207151</v>
+        <v>2005.050090887177</v>
       </c>
       <c r="X14" t="n">
-        <v>2002.268207865436</v>
+        <v>1677.406536681103</v>
       </c>
       <c r="Y14" t="n">
-        <v>2002.268207865436</v>
+        <v>1333.089408760297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>871.9801653865421</v>
+        <v>804.0724974406289</v>
       </c>
       <c r="C15" t="n">
-        <v>697.5271361054151</v>
+        <v>629.6194681595019</v>
       </c>
       <c r="D15" t="n">
-        <v>548.5927264441639</v>
+        <v>526.5072625532564</v>
       </c>
       <c r="E15" t="n">
-        <v>435.1774754937144</v>
+        <v>367.2698075478008</v>
       </c>
       <c r="F15" t="n">
-        <v>288.6429175205993</v>
+        <v>266.5574536296915</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1424524776805</v>
+        <v>175.8791926417784</v>
       </c>
       <c r="H15" t="n">
-        <v>60.31390260707285</v>
+        <v>84.05064277117073</v>
       </c>
       <c r="I15" t="n">
-        <v>60.31390260707285</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="J15" t="n">
-        <v>141.2714653172482</v>
+        <v>141.2714653172484</v>
       </c>
       <c r="K15" t="n">
-        <v>357.795659444732</v>
+        <v>357.7956594447323</v>
       </c>
       <c r="L15" t="n">
-        <v>695.2617003494879</v>
+        <v>695.2617003494884</v>
       </c>
       <c r="M15" t="n">
         <v>1108.425521012771</v>
       </c>
       <c r="N15" t="n">
-        <v>1546.93320351744</v>
+        <v>1546.933203517441</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.862268380988</v>
+        <v>1925.862268380989</v>
       </c>
       <c r="P15" t="n">
-        <v>2210.653183667179</v>
+        <v>2210.653183667181</v>
       </c>
       <c r="Q15" t="n">
-        <v>2351.109172113743</v>
+        <v>2351.109172113745</v>
       </c>
       <c r="R15" t="n">
-        <v>2342.436146872482</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S15" t="n">
-        <v>2210.446768050616</v>
+        <v>2210.446768050618</v>
       </c>
       <c r="T15" t="n">
-        <v>2063.07229493866</v>
+        <v>2017.250090883656</v>
       </c>
       <c r="U15" t="n">
-        <v>1880.817614965217</v>
+        <v>1789.173206855207</v>
       </c>
       <c r="V15" t="n">
-        <v>1645.665506733475</v>
+        <v>1554.021098623464</v>
       </c>
       <c r="W15" t="n">
-        <v>1391.428150005273</v>
+        <v>1342.077429376178</v>
       </c>
       <c r="X15" t="n">
-        <v>1183.57664979974</v>
+        <v>1134.225929170645</v>
       </c>
       <c r="Y15" t="n">
-        <v>1021.638555089792</v>
+        <v>972.287834460697</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>769.2623344096248</v>
+        <v>606.281843776864</v>
       </c>
       <c r="C16" t="n">
-        <v>646.1483555367239</v>
+        <v>483.1678649039628</v>
       </c>
       <c r="D16" t="n">
-        <v>541.853920179394</v>
+        <v>378.8734295466328</v>
       </c>
       <c r="E16" t="n">
-        <v>439.7630306520068</v>
+        <v>276.7825400192453</v>
       </c>
       <c r="F16" t="n">
-        <v>338.6952872091024</v>
+        <v>175.7147965763406</v>
       </c>
       <c r="G16" t="n">
-        <v>216.6994925415624</v>
+        <v>161.7327810717103</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2806140769252</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="I16" t="n">
-        <v>60.31390260707285</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="J16" t="n">
-        <v>142.3669419811939</v>
+        <v>142.3669419811936</v>
       </c>
       <c r="K16" t="n">
-        <v>378.150982141243</v>
+        <v>378.1509821412426</v>
       </c>
       <c r="L16" t="n">
-        <v>722.8403768204942</v>
+        <v>722.8403768204937</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.214820829984</v>
+        <v>1094.214820829983</v>
       </c>
       <c r="N16" t="n">
-        <v>1463.261294603308</v>
+        <v>1463.261294603306</v>
       </c>
       <c r="O16" t="n">
-        <v>1791.5475217495</v>
+        <v>1791.547521749499</v>
       </c>
       <c r="P16" t="n">
-        <v>2055.414205988138</v>
+        <v>2055.414205988136</v>
       </c>
       <c r="Q16" t="n">
-        <v>2168.48348986081</v>
+        <v>2168.483489860808</v>
       </c>
       <c r="R16" t="n">
-        <v>2119.297130009049</v>
+        <v>2119.297130009048</v>
       </c>
       <c r="S16" t="n">
-        <v>1971.426488614001</v>
+        <v>1971.426488613999</v>
       </c>
       <c r="T16" t="n">
-        <v>1794.990021004765</v>
+        <v>1794.990021004763</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.703076616473</v>
+        <v>1551.70307661647</v>
       </c>
       <c r="V16" t="n">
-        <v>1342.840792465592</v>
+        <v>1342.840792465589</v>
       </c>
       <c r="W16" t="n">
-        <v>1099.245826483637</v>
+        <v>1099.245826483634</v>
       </c>
       <c r="X16" t="n">
-        <v>1080.058970273383</v>
+        <v>917.0784796406224</v>
       </c>
       <c r="Y16" t="n">
-        <v>905.0885951848586</v>
+        <v>742.108104552098</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1533.286274822696</v>
+        <v>1644.367742038183</v>
       </c>
       <c r="C17" t="n">
-        <v>1257.595594885363</v>
+        <v>1368.677062100851</v>
       </c>
       <c r="D17" t="n">
-        <v>992.6017332816921</v>
+        <v>1103.683200497179</v>
       </c>
       <c r="E17" t="n">
-        <v>700.0853176865271</v>
+        <v>811.1667849020143</v>
       </c>
       <c r="F17" t="n">
-        <v>382.3712498999989</v>
+        <v>493.4527171154859</v>
       </c>
       <c r="G17" t="n">
-        <v>60.31390260707285</v>
+        <v>267.254944516761</v>
       </c>
       <c r="H17" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I17" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J17" t="n">
         <v>227.8366650533162</v>
       </c>
       <c r="K17" t="n">
-        <v>529.6483784099289</v>
+        <v>529.6483784099291</v>
       </c>
       <c r="L17" t="n">
-        <v>940.9742587040278</v>
+        <v>940.9742587040282</v>
       </c>
       <c r="M17" t="n">
         <v>1430.322991987625</v>
       </c>
       <c r="N17" t="n">
-        <v>1932.203707752933</v>
+        <v>1932.203707752934</v>
       </c>
       <c r="O17" t="n">
-        <v>2392.780174741102</v>
+        <v>2392.780174741103</v>
       </c>
       <c r="P17" t="n">
-        <v>2751.370532643385</v>
+        <v>2751.370532643386</v>
       </c>
       <c r="Q17" t="n">
-        <v>2972.484210969447</v>
+        <v>2972.484210969449</v>
       </c>
       <c r="R17" t="n">
-        <v>3015.695130353643</v>
+        <v>3015.695130353645</v>
       </c>
       <c r="S17" t="n">
-        <v>3015.695130353643</v>
+        <v>2992.825969645742</v>
       </c>
       <c r="T17" t="n">
-        <v>3015.695130353643</v>
+        <v>2878.996205330808</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.415951899278</v>
+        <v>2718.717026876443</v>
       </c>
       <c r="V17" t="n">
-        <v>2617.624901558786</v>
+        <v>2480.925976535952</v>
       </c>
       <c r="W17" t="n">
-        <v>2358.128083291751</v>
+        <v>2221.429158268917</v>
       </c>
       <c r="X17" t="n">
-        <v>2077.934162033751</v>
+        <v>1941.235237010916</v>
       </c>
       <c r="Y17" t="n">
-        <v>1781.066667061018</v>
+        <v>1644.367742038183</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>848.2672726025669</v>
+        <v>809.2284429077872</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0860803245191</v>
+        <v>634.7754136266602</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1516706632679</v>
+        <v>579.1128409684881</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9142156578123</v>
+        <v>435.1774754937144</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3796576846972</v>
+        <v>288.6429175205994</v>
       </c>
       <c r="G18" t="n">
-        <v>175.8791926417784</v>
+        <v>152.1424524776805</v>
       </c>
       <c r="H18" t="n">
-        <v>84.05064277117071</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I18" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J18" t="n">
-        <v>141.2714653172482</v>
+        <v>141.2714653172484</v>
       </c>
       <c r="K18" t="n">
-        <v>357.795659444732</v>
+        <v>357.7956594447323</v>
       </c>
       <c r="L18" t="n">
-        <v>695.2617003494879</v>
+        <v>695.2617003494884</v>
       </c>
       <c r="M18" t="n">
         <v>1108.425521012771</v>
       </c>
       <c r="N18" t="n">
-        <v>1546.93320351744</v>
+        <v>1546.933203517441</v>
       </c>
       <c r="O18" t="n">
-        <v>1925.862268380988</v>
+        <v>1925.862268380989</v>
       </c>
       <c r="P18" t="n">
-        <v>2210.653183667179</v>
+        <v>2210.653183667181</v>
       </c>
       <c r="Q18" t="n">
-        <v>2351.109172113743</v>
+        <v>2351.109172113745</v>
       </c>
       <c r="R18" t="n">
-        <v>2342.436146872482</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S18" t="n">
-        <v>2249.485597745398</v>
+        <v>2210.446768050618</v>
       </c>
       <c r="T18" t="n">
-        <v>2056.288920578435</v>
+        <v>2017.250090883656</v>
       </c>
       <c r="U18" t="n">
-        <v>1828.212036549987</v>
+        <v>1789.173206855207</v>
       </c>
       <c r="V18" t="n">
-        <v>1686.331765321323</v>
+        <v>1554.021098623464</v>
       </c>
       <c r="W18" t="n">
-        <v>1432.094408593122</v>
+        <v>1393.055578898342</v>
       </c>
       <c r="X18" t="n">
-        <v>1224.242908387589</v>
+        <v>1185.204078692809</v>
       </c>
       <c r="Y18" t="n">
-        <v>1016.482609622635</v>
+        <v>977.4437799278553</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.1149037731114</v>
+        <v>437.1149037731126</v>
       </c>
       <c r="C19" t="n">
-        <v>361.4505578482838</v>
+        <v>361.4505578482849</v>
       </c>
       <c r="D19" t="n">
-        <v>304.6057554390273</v>
+        <v>304.6057554390283</v>
       </c>
       <c r="E19" t="n">
-        <v>249.9644988597135</v>
+        <v>249.9644988597143</v>
       </c>
       <c r="F19" t="n">
-        <v>196.3463883648824</v>
+        <v>196.346388364883</v>
       </c>
       <c r="G19" t="n">
-        <v>121.8002266454158</v>
+        <v>121.8002266454161</v>
       </c>
       <c r="H19" t="n">
-        <v>67.83098112885187</v>
+        <v>67.83098112885207</v>
       </c>
       <c r="I19" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8723272336005</v>
+        <v>155.5724483241044</v>
       </c>
       <c r="K19" t="n">
-        <v>365.4854239648503</v>
+        <v>370.3363687699956</v>
       </c>
       <c r="L19" t="n">
-        <v>595.8302493703694</v>
+        <v>600.6811941755146</v>
       </c>
       <c r="M19" t="n">
-        <v>841.8364591370562</v>
+        <v>841.8364591370596</v>
       </c>
       <c r="N19" t="n">
-        <v>1087.288778486769</v>
+        <v>1087.288778486773</v>
       </c>
       <c r="O19" t="n">
-        <v>1300.669141183145</v>
+        <v>1300.669141183148</v>
       </c>
       <c r="P19" t="n">
-        <v>1477.384712993289</v>
+        <v>1477.384712993292</v>
       </c>
       <c r="Q19" t="n">
-        <v>1572.269853324394</v>
+        <v>1572.269853324397</v>
       </c>
       <c r="R19" t="n">
-        <v>1570.533126420707</v>
+        <v>1570.533126420709</v>
       </c>
       <c r="S19" t="n">
-        <v>1470.112117973732</v>
+        <v>1470.112117973734</v>
       </c>
       <c r="T19" t="n">
-        <v>1341.125283312568</v>
+        <v>1341.125283312571</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.28797187235</v>
+        <v>1145.287971872352</v>
       </c>
       <c r="V19" t="n">
-        <v>983.875320669542</v>
+        <v>983.875320669544</v>
       </c>
       <c r="W19" t="n">
-        <v>787.7299876356607</v>
+        <v>787.7299876356625</v>
       </c>
       <c r="X19" t="n">
-        <v>653.0122737407227</v>
+        <v>653.0122737407243</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.4915316002719</v>
+        <v>525.4915316002732</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1422.513248945856</v>
+        <v>1351.03973897714</v>
       </c>
       <c r="C20" t="n">
-        <v>1146.822569008523</v>
+        <v>1075.349059039807</v>
       </c>
       <c r="D20" t="n">
-        <v>881.8287074048521</v>
+        <v>810.3551974361358</v>
       </c>
       <c r="E20" t="n">
-        <v>589.3122918096867</v>
+        <v>517.838781840971</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3122918096867</v>
+        <v>200.1247140544428</v>
       </c>
       <c r="G20" t="n">
-        <v>267.2549445167608</v>
+        <v>200.1247140544428</v>
       </c>
       <c r="H20" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I20" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J20" t="n">
-        <v>227.8366650533162</v>
+        <v>227.8366650533171</v>
       </c>
       <c r="K20" t="n">
-        <v>529.6483784099291</v>
+        <v>529.64837840993</v>
       </c>
       <c r="L20" t="n">
-        <v>940.9742587040282</v>
+        <v>940.9742587040291</v>
       </c>
       <c r="M20" t="n">
-        <v>1430.322991987625</v>
+        <v>1430.322991987627</v>
       </c>
       <c r="N20" t="n">
-        <v>1932.203707752933</v>
+        <v>1932.203707752935</v>
       </c>
       <c r="O20" t="n">
-        <v>2392.780174741102</v>
+        <v>2392.780174741104</v>
       </c>
       <c r="P20" t="n">
-        <v>2751.370532643385</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q20" t="n">
-        <v>2972.484210969447</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R20" t="n">
-        <v>3015.695130353643</v>
+        <v>3015.695130353645</v>
       </c>
       <c r="S20" t="n">
-        <v>2992.825969645739</v>
+        <v>2992.825969645742</v>
       </c>
       <c r="T20" t="n">
-        <v>2878.996205330805</v>
+        <v>2878.996205330808</v>
       </c>
       <c r="U20" t="n">
-        <v>2718.71702687644</v>
+        <v>2718.717026876443</v>
       </c>
       <c r="V20" t="n">
-        <v>2552.399486504666</v>
+        <v>2480.925976535951</v>
       </c>
       <c r="W20" t="n">
-        <v>2292.902668237631</v>
+        <v>2221.429158268916</v>
       </c>
       <c r="X20" t="n">
-        <v>2012.708746979631</v>
+        <v>1941.235237010915</v>
       </c>
       <c r="Y20" t="n">
-        <v>1715.841252006898</v>
+        <v>1644.367742038182</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>825.9738195709405</v>
+        <v>732.7019825678614</v>
       </c>
       <c r="C21" t="n">
-        <v>651.5207902898135</v>
+        <v>558.2489532867344</v>
       </c>
       <c r="D21" t="n">
-        <v>502.5863806285623</v>
+        <v>409.3145436254832</v>
       </c>
       <c r="E21" t="n">
         <v>343.3489256231068</v>
       </c>
       <c r="F21" t="n">
-        <v>196.8143676499917</v>
+        <v>196.8143676499918</v>
       </c>
       <c r="G21" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="H21" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I21" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J21" t="n">
-        <v>141.2714653172482</v>
+        <v>141.2714653172484</v>
       </c>
       <c r="K21" t="n">
-        <v>357.795659444732</v>
+        <v>357.7956594447323</v>
       </c>
       <c r="L21" t="n">
-        <v>695.2617003494879</v>
+        <v>695.2617003494884</v>
       </c>
       <c r="M21" t="n">
         <v>1108.425521012771</v>
       </c>
       <c r="N21" t="n">
-        <v>1546.93320351744</v>
+        <v>1546.933203517441</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.862268380988</v>
+        <v>1925.862268380989</v>
       </c>
       <c r="P21" t="n">
-        <v>2210.653183667179</v>
+        <v>2210.653183667181</v>
       </c>
       <c r="Q21" t="n">
-        <v>2351.109172113743</v>
+        <v>2351.109172113745</v>
       </c>
       <c r="R21" t="n">
-        <v>2342.436146872482</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S21" t="n">
-        <v>2210.446768050616</v>
+        <v>2210.446768050618</v>
       </c>
       <c r="T21" t="n">
-        <v>2110.521927886733</v>
+        <v>2017.250090883656</v>
       </c>
       <c r="U21" t="n">
-        <v>1882.445043858285</v>
+        <v>1789.173206855207</v>
       </c>
       <c r="V21" t="n">
-        <v>1647.292935626542</v>
+        <v>1570.766475286618</v>
       </c>
       <c r="W21" t="n">
-        <v>1409.800955561495</v>
+        <v>1316.529118558416</v>
       </c>
       <c r="X21" t="n">
-        <v>1201.949455355962</v>
+        <v>1108.677618352883</v>
       </c>
       <c r="Y21" t="n">
-        <v>994.1891565910084</v>
+        <v>900.9173195879293</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.1149037731114</v>
+        <v>437.1149037731126</v>
       </c>
       <c r="C22" t="n">
-        <v>361.4505578482838</v>
+        <v>361.4505578482849</v>
       </c>
       <c r="D22" t="n">
-        <v>304.6057554390273</v>
+        <v>304.6057554390283</v>
       </c>
       <c r="E22" t="n">
-        <v>249.9644988597135</v>
+        <v>249.9644988597143</v>
       </c>
       <c r="F22" t="n">
-        <v>196.3463883648824</v>
+        <v>196.346388364883</v>
       </c>
       <c r="G22" t="n">
-        <v>121.8002266454158</v>
+        <v>121.8002266454161</v>
       </c>
       <c r="H22" t="n">
-        <v>67.83098112885187</v>
+        <v>67.83098112885207</v>
       </c>
       <c r="I22" t="n">
-        <v>60.31390260707285</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J22" t="n">
         <v>155.5724483241044</v>
       </c>
       <c r="K22" t="n">
-        <v>332.1855450553542</v>
+        <v>332.1855450553541</v>
       </c>
       <c r="L22" t="n">
-        <v>562.5303704608733</v>
+        <v>562.5303704608731</v>
       </c>
       <c r="M22" t="n">
-        <v>803.6856354224184</v>
+        <v>803.685635422418</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.137954772132</v>
+        <v>1087.288778486773</v>
       </c>
       <c r="O22" t="n">
-        <v>1262.518317468508</v>
+        <v>1300.669141183148</v>
       </c>
       <c r="P22" t="n">
-        <v>1477.384712993289</v>
+        <v>1477.384712993292</v>
       </c>
       <c r="Q22" t="n">
-        <v>1572.269853324394</v>
+        <v>1572.269853324397</v>
       </c>
       <c r="R22" t="n">
-        <v>1570.533126420707</v>
+        <v>1570.533126420709</v>
       </c>
       <c r="S22" t="n">
-        <v>1470.112117973732</v>
+        <v>1470.112117973734</v>
       </c>
       <c r="T22" t="n">
-        <v>1341.125283312568</v>
+        <v>1341.125283312571</v>
       </c>
       <c r="U22" t="n">
-        <v>1145.28797187235</v>
+        <v>1145.287971872352</v>
       </c>
       <c r="V22" t="n">
-        <v>983.875320669542</v>
+        <v>983.875320669544</v>
       </c>
       <c r="W22" t="n">
-        <v>787.7299876356607</v>
+        <v>787.7299876356625</v>
       </c>
       <c r="X22" t="n">
-        <v>653.0122737407227</v>
+        <v>653.0122737407243</v>
       </c>
       <c r="Y22" t="n">
-        <v>525.4915316002719</v>
+        <v>525.4915316002732</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1745.082260058033</v>
+        <v>1745.082260058034</v>
       </c>
       <c r="C23" t="n">
-        <v>1469.391580120701</v>
+        <v>1469.391580120702</v>
       </c>
       <c r="D23" t="n">
         <v>1204.39771851703</v>
       </c>
       <c r="E23" t="n">
-        <v>911.8813029218646</v>
+        <v>911.8813029218652</v>
       </c>
       <c r="F23" t="n">
-        <v>594.1672351353363</v>
+        <v>594.1672351353368</v>
       </c>
       <c r="G23" t="n">
-        <v>272.3666219834124</v>
+        <v>272.3666219834126</v>
       </c>
       <c r="H23" t="n">
-        <v>68.05485859525886</v>
+        <v>68.05485859525891</v>
       </c>
       <c r="I23" t="n">
-        <v>68.05485859525886</v>
+        <v>68.05485859525891</v>
       </c>
       <c r="J23" t="n">
         <v>256.9339895542843</v>
       </c>
       <c r="K23" t="n">
-        <v>590.7533632441308</v>
+        <v>590.7533632441307</v>
       </c>
       <c r="L23" t="n">
-        <v>1041.78757649254</v>
+        <v>1117.38194248324</v>
       </c>
       <c r="M23" t="n">
-        <v>1575.319481164464</v>
+        <v>1650.913847155164</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.692664213943</v>
+        <v>2197.692664213946</v>
       </c>
       <c r="O23" t="n">
-        <v>2700.66513509328</v>
+        <v>2700.665135093283</v>
       </c>
       <c r="P23" t="n">
-        <v>3095.439501450458</v>
+        <v>3095.439501450461</v>
       </c>
       <c r="Q23" t="n">
-        <v>3343.725863206141</v>
+        <v>3343.725863206143</v>
       </c>
       <c r="R23" t="n">
-        <v>3402.742929762943</v>
+        <v>3402.742929762946</v>
       </c>
       <c r="S23" t="n">
-        <v>3385.724098293118</v>
+        <v>3385.72409829312</v>
       </c>
       <c r="T23" t="n">
-        <v>3273.018187680419</v>
+        <v>3273.018187680421</v>
       </c>
       <c r="U23" t="n">
-        <v>3112.759547957335</v>
+        <v>3112.759547957337</v>
       </c>
       <c r="V23" t="n">
-        <v>2874.968497616843</v>
+        <v>2874.968497616846</v>
       </c>
       <c r="W23" t="n">
-        <v>2615.471679349808</v>
+        <v>2615.471679349811</v>
       </c>
       <c r="X23" t="n">
-        <v>2335.277758091808</v>
+        <v>2335.27775809181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2038.410263119075</v>
+        <v>2038.410263119077</v>
       </c>
     </row>
     <row r="24">
@@ -6057,13 +6057,13 @@
         <v>313.9271447232352</v>
       </c>
       <c r="G24" t="n">
-        <v>177.5640445558534</v>
+        <v>177.5640445558535</v>
       </c>
       <c r="H24" t="n">
-        <v>87.06215019372091</v>
+        <v>87.06215019372097</v>
       </c>
       <c r="I24" t="n">
-        <v>68.05485859525886</v>
+        <v>68.05485859525891</v>
       </c>
       <c r="J24" t="n">
         <v>161.7321280858762</v>
@@ -6072,10 +6072,10 @@
         <v>399.9963270662233</v>
       </c>
       <c r="L24" t="n">
-        <v>766.6944873788888</v>
+        <v>766.6944873788884</v>
       </c>
       <c r="M24" t="n">
-        <v>1213.970812601205</v>
+        <v>1213.970812601204</v>
       </c>
       <c r="N24" t="n">
         <v>1687.493856155659</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.2535635833279</v>
+        <v>440.2535635833291</v>
       </c>
       <c r="C25" t="n">
-        <v>364.5892176585003</v>
+        <v>364.5892176585014</v>
       </c>
       <c r="D25" t="n">
-        <v>307.7444152492438</v>
+        <v>307.7444152492448</v>
       </c>
       <c r="E25" t="n">
-        <v>253.10315866993</v>
+        <v>253.1031586699308</v>
       </c>
       <c r="F25" t="n">
-        <v>199.4850481750989</v>
+        <v>199.4850481750995</v>
       </c>
       <c r="G25" t="n">
-        <v>125.0540485528972</v>
+        <v>125.0540485528976</v>
       </c>
       <c r="H25" t="n">
-        <v>72.10869877383423</v>
+        <v>72.10869877383446</v>
       </c>
       <c r="I25" t="n">
-        <v>68.05485859525886</v>
+        <v>68.05485859525891</v>
       </c>
       <c r="J25" t="n">
-        <v>171.2933395794163</v>
+        <v>171.2933395794162</v>
       </c>
       <c r="K25" t="n">
-        <v>361.0199212938047</v>
+        <v>361.0199212938043</v>
       </c>
       <c r="L25" t="n">
-        <v>608.14549266288</v>
+        <v>608.1454926628794</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9937014087958</v>
+        <v>866.993701408795</v>
       </c>
       <c r="N25" t="n">
-        <v>1129.718265885361</v>
+        <v>1129.71826588536</v>
       </c>
       <c r="O25" t="n">
-        <v>1359.052342550269</v>
+        <v>1359.052342550268</v>
       </c>
       <c r="P25" t="n">
-        <v>1463.457096042702</v>
+        <v>1549.419072749744</v>
       </c>
       <c r="Q25" t="n">
-        <v>1567.793590847961</v>
+        <v>1567.793590847964</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.166487151332</v>
+        <v>1571.166487151335</v>
       </c>
       <c r="S25" t="n">
-        <v>1472.752439981238</v>
+        <v>1472.75243998124</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.257661553843</v>
+        <v>1344.257661553846</v>
       </c>
       <c r="U25" t="n">
-        <v>1148.426631682566</v>
+        <v>1148.426631682568</v>
       </c>
       <c r="V25" t="n">
-        <v>987.0139804797585</v>
+        <v>987.0139804797604</v>
       </c>
       <c r="W25" t="n">
-        <v>790.8686474458772</v>
+        <v>790.868647445879</v>
       </c>
       <c r="X25" t="n">
-        <v>656.1509335509392</v>
+        <v>656.1509335509407</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.6301914104884</v>
+        <v>528.6301914104897</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6233,13 +6233,13 @@
         <v>1199.740015328399</v>
       </c>
       <c r="M26" t="n">
-        <v>1779.77730525273</v>
+        <v>2072.989835964642</v>
       </c>
       <c r="N26" t="n">
-        <v>2373.061507563919</v>
+        <v>2666.274038275831</v>
       </c>
       <c r="O26" t="n">
-        <v>2922.539363695662</v>
+        <v>3215.751894407575</v>
       </c>
       <c r="P26" t="n">
         <v>3657.031646017159</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
         <v>100.1542084951512</v>
@@ -6324,28 +6324,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6385,16 +6385,16 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
         <v>1910.743863481263</v>
@@ -6449,40 +6449,40 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>86.49114167389909</v>
+        <v>86.49114167389907</v>
       </c>
       <c r="J29" t="n">
         <v>321.8756578853311</v>
       </c>
       <c r="K29" t="n">
-        <v>702.2004168275841</v>
+        <v>930.3536918652441</v>
       </c>
       <c r="L29" t="n">
-        <v>1199.740015328399</v>
+        <v>1427.893290366059</v>
       </c>
       <c r="M29" t="n">
-        <v>1779.77730525273</v>
+        <v>2007.93058029039</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.082197522525</v>
+        <v>2601.214782601579</v>
       </c>
       <c r="O29" t="n">
-        <v>3005.560053654269</v>
+        <v>3150.692638733322</v>
       </c>
       <c r="P29" t="n">
-        <v>3446.839805263854</v>
+        <v>3591.972390342907</v>
       </c>
       <c r="Q29" t="n">
-        <v>3951.823393025248</v>
+        <v>3886.764137350995</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834457</v>
@@ -6494,7 +6494,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
         <v>190.6561028572837</v>
@@ -6570,19 +6570,19 @@
         <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
@@ -6619,16 +6619,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>86.49114167389912</v>
+        <v>86.49114167389907</v>
       </c>
       <c r="J32" t="n">
-        <v>321.8756578853312</v>
+        <v>321.8756578853311</v>
       </c>
       <c r="K32" t="n">
-        <v>702.2004168275843</v>
+        <v>702.2004168275841</v>
       </c>
       <c r="L32" t="n">
-        <v>1199.7400153284</v>
+        <v>1199.740015328399</v>
       </c>
       <c r="M32" t="n">
         <v>1779.77730525273</v>
       </c>
       <c r="N32" t="n">
-        <v>2666.274038275831</v>
+        <v>2373.061507563919</v>
       </c>
       <c r="O32" t="n">
         <v>3215.751894407575</v>
@@ -6731,10 +6731,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6768,7 +6768,7 @@
         <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
         <v>100.1542084951512</v>
@@ -6844,46 +6844,46 @@
         <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960301</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6920,52 +6920,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -7005,13 +7005,13 @@
         <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>155.2189959588247</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>350.237723252319</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>602.6554402005002</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M37" t="n">
-        <v>866.7957945255218</v>
+        <v>693.203795510496</v>
       </c>
       <c r="N37" t="n">
-        <v>1134.812504581193</v>
+        <v>950.0618004120229</v>
       </c>
       <c r="O37" t="n">
-        <v>1272.730853799383</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552141</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7157,28 +7157,28 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7196,28 +7196,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J40" t="n">
-        <v>155.2189959588246</v>
+        <v>155.2189959588258</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2377232523189</v>
+        <v>350.2377232523201</v>
       </c>
       <c r="L40" t="n">
-        <v>602.6554402005</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M40" t="n">
-        <v>866.7957945255217</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.104631555369</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799383</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7394,31 +7394,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,19 +7439,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7473,10 +7473,10 @@
         <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630286</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7567,25 +7567,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
-        <v>370.0614702889411</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L43" t="n">
-        <v>622.4791872371222</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>886.6195415621439</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N43" t="n">
-        <v>1143.47754646367</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O43" t="n">
-        <v>1378.103768707684</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460443</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q43" t="n">
         <v>1489.975538818984</v>
@@ -7594,7 +7594,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
         <v>1273.865908363023</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7682,7 +7682,7 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049857</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064548</v>
@@ -7731,46 +7731,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170921</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
@@ -7801,55 +7801,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226768</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>155.2189959588242</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090252</v>
+        <v>350.2377232523185</v>
       </c>
       <c r="L46" t="n">
-        <v>602.6554402005005</v>
+        <v>602.6554402004997</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996983</v>
+        <v>770.0879214996975</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>941.396758529545</v>
       </c>
       <c r="O46" t="n">
         <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304658</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673486</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431748</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -9319,16 +9319,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>38.53618557034497</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.899944247617896</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9568,13 +9568,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>38.53618557034497</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>38.53618557034116</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>296.1742734463759</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>296.1742734463762</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>106.743766344652</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10045,7 +10045,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.041666365882</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>230.4578535733939</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>83.85928278647123</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>296.1742734463755</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>296.174273446376</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272206</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>258.5112912125193</v>
+        <v>94.72653945968088</v>
       </c>
       <c r="D11" t="n">
-        <v>309.319059606227</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>361.5120637272557</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>251.8467681091836</v>
+        <v>251.8467681091838</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.61560571941709</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>159.6666032903772</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>340.8739566415978</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5.863660739164624</v>
       </c>
       <c r="E13" t="n">
-        <v>61.29361971795424</v>
+        <v>101.0699806321134</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0570660084753</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.41704435515395</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>319.9089097565519</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>336.5663880578061</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>365.8119104385893</v>
+        <v>365.8119104385896</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.011713299731333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>20.66040638504229</v>
       </c>
       <c r="U14" t="n">
-        <v>205.6515232884134</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>136.6219375691184</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.8739566415977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>106.9336413712812</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.41704435515405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>161.3506857264292</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.09213471449246</v>
+        <v>290.3947230304323</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>94.90097894725972</v>
       </c>
       <c r="H17" t="n">
-        <v>204.871631490591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22.64046910082443</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>112.6914666717846</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>314.536927108663</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>318.8367738199969</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>66.45892815769501</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>70.75877486903011</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894435.340278891</v>
+        <v>894435.3402788916</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894435.3402788915</v>
+        <v>894435.340278891</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>948978.477745102</v>
+        <v>948978.4777451021</v>
       </c>
     </row>
     <row r="9">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.9862943711</v>
+        <v>450601.986294371</v>
       </c>
       <c r="C2" t="n">
-        <v>450601.9862943711</v>
+        <v>450601.986294371</v>
       </c>
       <c r="D2" t="n">
-        <v>450643.3075810813</v>
+        <v>450643.3075810812</v>
       </c>
       <c r="E2" t="n">
-        <v>403519.7049966536</v>
+        <v>403519.7049966537</v>
       </c>
       <c r="F2" t="n">
-        <v>403519.7049966538</v>
+        <v>403519.7049966535</v>
       </c>
       <c r="G2" t="n">
-        <v>434704.7275927731</v>
+        <v>434704.7275927716</v>
       </c>
       <c r="H2" t="n">
-        <v>434704.727592773</v>
+        <v>434704.7275927715</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253566</v>
+        <v>451572.9734253551</v>
       </c>
       <c r="J2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="M2" t="n">
         <v>451572.9734253556</v>
@@ -26350,10 +26350,10 @@
         <v>451572.9734253556</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>897508.7800239789</v>
+        <v>897508.7800239793</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487414</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73322.8307678711</v>
+        <v>73322.83076787055</v>
       </c>
       <c r="J3" t="n">
-        <v>42818.2312777428</v>
+        <v>42818.23127774265</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487414</v>
       </c>
       <c r="M3" t="n">
-        <v>182860.3540168136</v>
+        <v>182860.3540168138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
-        <v>65842.91089474893</v>
+        <v>65842.9108947487</v>
       </c>
       <c r="F4" t="n">
-        <v>65842.91089474891</v>
+        <v>65842.91089474861</v>
       </c>
       <c r="G4" t="n">
-        <v>97920.21952056978</v>
+        <v>97920.2195205696</v>
       </c>
       <c r="H4" t="n">
-        <v>97920.21952056976</v>
+        <v>97920.21952056959</v>
       </c>
       <c r="I4" t="n">
-        <v>93877.11913013479</v>
+        <v>93877.11913013483</v>
       </c>
       <c r="J4" t="n">
-        <v>94970.87945926865</v>
+        <v>94970.87945926866</v>
       </c>
       <c r="K4" t="n">
-        <v>94970.87945926868</v>
+        <v>94970.87945926866</v>
       </c>
       <c r="L4" t="n">
         <v>94970.87945926865</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657708</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657705</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>72031.11964579638</v>
+        <v>72031.11964579641</v>
       </c>
       <c r="F5" t="n">
-        <v>72031.11964579638</v>
+        <v>72031.1196457964</v>
       </c>
       <c r="G5" t="n">
-        <v>75980.27240618484</v>
+        <v>75980.27240618487</v>
       </c>
       <c r="H5" t="n">
-        <v>75980.27240618484</v>
+        <v>75980.27240618487</v>
       </c>
       <c r="I5" t="n">
-        <v>83241.68196969239</v>
+        <v>83241.68196969241</v>
       </c>
       <c r="J5" t="n">
         <v>89377.9416748061</v>
@@ -26500,13 +26500,13 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50641.57363736015</v>
+        <v>-50645.98721522838</v>
       </c>
       <c r="C6" t="n">
-        <v>-50641.57363736009</v>
+        <v>-50645.98721522832</v>
       </c>
       <c r="D6" t="n">
-        <v>-174955.2493909253</v>
+        <v>-174959.475144763</v>
       </c>
       <c r="E6" t="n">
-        <v>-631863.1055678705</v>
+        <v>-632081.5295152738</v>
       </c>
       <c r="F6" t="n">
-        <v>265645.6744561085</v>
+        <v>265427.2505087054</v>
       </c>
       <c r="G6" t="n">
-        <v>223224.1263711444</v>
+        <v>223147.4525264495</v>
       </c>
       <c r="H6" t="n">
-        <v>260804.2356660184</v>
+        <v>260727.5618213235</v>
       </c>
       <c r="I6" t="n">
-        <v>201131.3415576583</v>
+        <v>201131.3415576573</v>
       </c>
       <c r="J6" t="n">
-        <v>224405.9210135384</v>
+        <v>224405.9210135388</v>
       </c>
       <c r="K6" t="n">
-        <v>267224.1522912811</v>
+        <v>267224.1522912814</v>
       </c>
       <c r="L6" t="n">
-        <v>229644.0429964071</v>
+        <v>229644.0429964073</v>
       </c>
       <c r="M6" t="n">
-        <v>92419.8842757151</v>
+        <v>92419.88427571494</v>
       </c>
       <c r="N6" t="n">
         <v>275280.2382925287</v>
       </c>
       <c r="O6" t="n">
-        <v>275280.2382925287</v>
+        <v>275280.238292529</v>
       </c>
       <c r="P6" t="n">
-        <v>275280.2382925288</v>
+        <v>275280.2382925286</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="F2" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G2" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="H2" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="I2" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="F4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884111</v>
       </c>
       <c r="G4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="H4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="I4" t="n">
-        <v>850.6857324407358</v>
+        <v>850.6857324407364</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,10 +26820,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445591</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>791.7726710688553</v>
+        <v>791.7726710688557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22399139844879</v>
+        <v>63.22399139844811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.76194985232519</v>
+        <v>96.76194985232507</v>
       </c>
       <c r="J4" t="n">
-        <v>163.6507287678785</v>
+        <v>163.6507287678779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.9887767820887</v>
+        <v>570.9887767820896</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.36398201445591</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27880,16 +27880,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
         <v>95.50771753390021</v>
@@ -27974,7 +27974,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>114.3252943440434</v>
@@ -28041,7 +28041,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
         <v>62.89780050171086</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="C11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="D11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="E11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="F11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="G11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="H11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="I11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="U11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="V11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="W11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="X11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
     </row>
     <row r="12">
@@ -28172,22 +28172,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="G12" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="H12" t="n">
-        <v>9.785082854802297</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.49937276245689</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.586294988847953</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>18.37137784364876</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>45.3639820144559</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>45.3639820144559</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="C13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="D13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="E13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="F13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="G13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="H13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="I13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="J13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="L13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="M13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="N13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="O13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="P13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="R13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="S13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="T13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="U13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="V13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="W13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="X13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445574</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="C14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="D14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="T14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="U14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="V14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="W14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="X14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.37137784364984</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E15" t="n">
-        <v>45.3639820144559</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.49937276245689</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>45.3639820144559</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>45.3639820144559</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>41.8707506061061</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="D16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="J16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="L16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="M16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="N16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="O16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="P16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="R16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="S16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="T16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="U16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="V16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="W16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="X16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.3639820144559</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="C17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="D17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="E17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="F17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="G17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="H17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="I17" t="n">
-        <v>51.37569531418703</v>
+        <v>51.37569531418697</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="T17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="U17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="V17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="W17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="X17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
     </row>
     <row r="18">
@@ -28643,13 +28643,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>92.33911863304849</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>15.14906863537502</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>38.64844139783351</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,10 +28700,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>92.33911863304849</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="C19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="D19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="E19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="F19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="G19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="H19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="I19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="K19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="L19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="M19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="N19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="O19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="P19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="R19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="S19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="T19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="U19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="V19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="W19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="X19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="C20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="D20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="E20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="F20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="G20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="H20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="I20" t="n">
-        <v>51.37569531418703</v>
+        <v>51.37569531418697</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="T20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="U20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="V20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="W20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="X20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
     </row>
     <row r="21">
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>90.91026437190156</v>
       </c>
       <c r="I21" t="n">
-        <v>23.49937276245689</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,16 +28931,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>92.33911863304849</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>16.57792289652167</v>
       </c>
       <c r="W21" t="n">
-        <v>16.57792289652323</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="C22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="D22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="E22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="F22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="G22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="H22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="I22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="K22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="L22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="M22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="N22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="O22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="P22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="R22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="S22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="T22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="U22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="V22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="W22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="X22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Y22" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="C23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="D23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="E23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="F23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="G23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="H23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29065,13 +29065,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>76.35794544515176</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>76.35794544514806</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="T23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="U23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="V23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="W23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="X23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Y23" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="C25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="D25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="E25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="F25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="G25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="H25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="I25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="K25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="L25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="M25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="N25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="O25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="P25" t="n">
-        <v>5.50883913098464</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.33911863304849</v>
+        <v>5.508839130988736</v>
       </c>
       <c r="R25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="S25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="T25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="U25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="V25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="W25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="X25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.33911863304849</v>
+        <v>92.33911863304832</v>
       </c>
     </row>
     <row r="26">
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29642,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29840,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>76.32843350415921</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810502</v>
+        <v>86.41330088048426</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J40" t="n">
-        <v>77.660733322426</v>
+        <v>76.3284335041604</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30545,13 +30545,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N43" t="n">
-        <v>86.41330088048392</v>
+        <v>86.41330088048483</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R43" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810499</v>
+        <v>76.32843350415864</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="L46" t="n">
-        <v>76.32843350415965</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
   </sheetData>
@@ -31528,7 +31528,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
         <v>165.7299311340341</v>
@@ -31537,7 +31537,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
         <v>135.7252782213693</v>
@@ -31552,7 +31552,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
         <v>0.07550714794001816</v>
@@ -31622,7 +31622,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
         <v>31.35420961992052</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
         <v>3.764178316183975</v>
@@ -31689,7 +31689,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
         <v>64.78774396352233</v>
@@ -31701,13 +31701,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
         <v>1.808960949495364</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.126845062089844</v>
+        <v>4.126845062089846</v>
       </c>
       <c r="H11" t="n">
-        <v>42.26405199212763</v>
+        <v>42.26405199212765</v>
       </c>
       <c r="I11" t="n">
         <v>159.1001942562189</v>
       </c>
       <c r="J11" t="n">
-        <v>350.2608160885482</v>
+        <v>350.2608160885484</v>
       </c>
       <c r="K11" t="n">
-        <v>524.9501675668114</v>
+        <v>524.9501675668116</v>
       </c>
       <c r="L11" t="n">
-        <v>651.2471021357436</v>
+        <v>651.2471021357439</v>
       </c>
       <c r="M11" t="n">
-        <v>724.6378830086838</v>
+        <v>724.6378830086842</v>
       </c>
       <c r="N11" t="n">
-        <v>736.3632815413467</v>
+        <v>736.3632815413471</v>
       </c>
       <c r="O11" t="n">
-        <v>695.3269659551908</v>
+        <v>695.3269659551911</v>
       </c>
       <c r="P11" t="n">
-        <v>593.4454784848476</v>
+        <v>593.445478484848</v>
       </c>
       <c r="Q11" t="n">
-        <v>445.652839698755</v>
+        <v>445.6528396987551</v>
       </c>
       <c r="R11" t="n">
-        <v>259.2329311315014</v>
+        <v>259.2329311315015</v>
       </c>
       <c r="S11" t="n">
-        <v>94.04048185237242</v>
+        <v>94.04048185237247</v>
       </c>
       <c r="T11" t="n">
-        <v>18.0652642592983</v>
+        <v>18.06526425929831</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3301476049671875</v>
+        <v>0.3301476049671876</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.208056770720997</v>
+        <v>2.208056770720998</v>
       </c>
       <c r="H12" t="n">
         <v>21.3251798645949</v>
       </c>
       <c r="I12" t="n">
-        <v>76.02300723754311</v>
+        <v>76.02300723754314</v>
       </c>
       <c r="J12" t="n">
-        <v>208.6129425355307</v>
+        <v>208.6129425355308</v>
       </c>
       <c r="K12" t="n">
-        <v>356.5527461738375</v>
+        <v>356.5527461738377</v>
       </c>
       <c r="L12" t="n">
-        <v>479.4291685725569</v>
+        <v>479.4291685725571</v>
       </c>
       <c r="M12" t="n">
-        <v>559.4712265111929</v>
+        <v>559.4712265111932</v>
       </c>
       <c r="N12" t="n">
-        <v>574.2787651183527</v>
+        <v>574.2787651183529</v>
       </c>
       <c r="O12" t="n">
-        <v>525.3528756197453</v>
+        <v>525.3528756197455</v>
       </c>
       <c r="P12" t="n">
-        <v>421.6419986125034</v>
+        <v>421.6419986125036</v>
       </c>
       <c r="Q12" t="n">
-        <v>281.8565098906312</v>
+        <v>281.8565098906313</v>
       </c>
       <c r="R12" t="n">
-        <v>137.093208975116</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S12" t="n">
-        <v>41.01368607019042</v>
+        <v>41.01368607019045</v>
       </c>
       <c r="T12" t="n">
-        <v>8.900018299528927</v>
+        <v>8.900018299528933</v>
       </c>
       <c r="U12" t="n">
         <v>0.145266892810592</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.851160623138253</v>
+        <v>1.851160623138254</v>
       </c>
       <c r="H13" t="n">
-        <v>16.45850081299284</v>
+        <v>16.45850081299285</v>
       </c>
       <c r="I13" t="n">
-        <v>55.66944855764857</v>
+        <v>55.66944855764859</v>
       </c>
       <c r="J13" t="n">
         <v>130.8770560558745</v>
       </c>
       <c r="K13" t="n">
-        <v>215.0712069427897</v>
+        <v>215.0712069427898</v>
       </c>
       <c r="L13" t="n">
-        <v>275.2170984618454</v>
+        <v>275.2170984618455</v>
       </c>
       <c r="M13" t="n">
-        <v>290.1778420433899</v>
+        <v>290.1778420433901</v>
       </c>
       <c r="N13" t="n">
-        <v>283.2780615389657</v>
+        <v>283.2780615389659</v>
       </c>
       <c r="O13" t="n">
-        <v>261.6531397141234</v>
+        <v>261.6531397141235</v>
       </c>
       <c r="P13" t="n">
-        <v>223.8894630021028</v>
+        <v>223.8894630021029</v>
       </c>
       <c r="Q13" t="n">
         <v>155.0094590884223</v>
       </c>
       <c r="R13" t="n">
-        <v>83.23491310947088</v>
+        <v>83.23491310947092</v>
       </c>
       <c r="S13" t="n">
-        <v>32.26068104141845</v>
+        <v>32.26068104141847</v>
       </c>
       <c r="T13" t="n">
-        <v>7.909504480681624</v>
+        <v>7.909504480681628</v>
       </c>
       <c r="U13" t="n">
         <v>0.100972397625723</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.126845062089844</v>
+        <v>4.126845062089846</v>
       </c>
       <c r="H14" t="n">
-        <v>42.26405199212763</v>
+        <v>42.26405199212765</v>
       </c>
       <c r="I14" t="n">
         <v>159.1001942562189</v>
       </c>
       <c r="J14" t="n">
-        <v>350.2608160885482</v>
+        <v>350.2608160885484</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9501675668114</v>
+        <v>524.9501675668116</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2471021357436</v>
+        <v>651.2471021357439</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6378830086838</v>
+        <v>724.6378830086842</v>
       </c>
       <c r="N14" t="n">
-        <v>736.3632815413467</v>
+        <v>736.3632815413471</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3269659551908</v>
+        <v>695.3269659551911</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4454784848476</v>
+        <v>593.445478484848</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.652839698755</v>
+        <v>445.6528396987551</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2329311315014</v>
+        <v>259.2329311315015</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04048185237242</v>
+        <v>94.04048185237247</v>
       </c>
       <c r="T14" t="n">
-        <v>18.0652642592983</v>
+        <v>18.06526425929831</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301476049671875</v>
+        <v>0.3301476049671876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208056770720997</v>
+        <v>2.208056770720998</v>
       </c>
       <c r="H15" t="n">
         <v>21.3251798645949</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02300723754311</v>
+        <v>76.02300723754314</v>
       </c>
       <c r="J15" t="n">
-        <v>208.6129425355307</v>
+        <v>208.6129425355308</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5527461738375</v>
+        <v>356.5527461738377</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4291685725569</v>
+        <v>479.4291685725571</v>
       </c>
       <c r="M15" t="n">
-        <v>559.4712265111929</v>
+        <v>559.4712265111932</v>
       </c>
       <c r="N15" t="n">
-        <v>574.2787651183527</v>
+        <v>574.2787651183529</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3528756197453</v>
+        <v>525.3528756197455</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6419986125034</v>
+        <v>421.6419986125036</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.8565098906312</v>
+        <v>281.8565098906313</v>
       </c>
       <c r="R15" t="n">
-        <v>137.093208975116</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S15" t="n">
-        <v>41.01368607019042</v>
+        <v>41.01368607019045</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900018299528927</v>
+        <v>8.900018299528933</v>
       </c>
       <c r="U15" t="n">
         <v>0.145266892810592</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.851160623138253</v>
+        <v>1.851160623138254</v>
       </c>
       <c r="H16" t="n">
-        <v>16.45850081299284</v>
+        <v>16.45850081299285</v>
       </c>
       <c r="I16" t="n">
-        <v>55.66944855764857</v>
+        <v>55.66944855764859</v>
       </c>
       <c r="J16" t="n">
         <v>130.8770560558745</v>
       </c>
       <c r="K16" t="n">
-        <v>215.0712069427897</v>
+        <v>215.0712069427898</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2170984618454</v>
+        <v>275.2170984618455</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1778420433899</v>
+        <v>290.1778420433901</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2780615389657</v>
+        <v>283.2780615389659</v>
       </c>
       <c r="O16" t="n">
-        <v>261.6531397141234</v>
+        <v>261.6531397141235</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8894630021028</v>
+        <v>223.8894630021029</v>
       </c>
       <c r="Q16" t="n">
         <v>155.0094590884223</v>
       </c>
       <c r="R16" t="n">
-        <v>83.23491310947088</v>
+        <v>83.23491310947092</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26068104141845</v>
+        <v>32.26068104141847</v>
       </c>
       <c r="T16" t="n">
-        <v>7.909504480681624</v>
+        <v>7.909504480681628</v>
       </c>
       <c r="U16" t="n">
         <v>0.100972397625723</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.126845062089844</v>
+        <v>4.126845062089846</v>
       </c>
       <c r="H17" t="n">
-        <v>42.26405199212763</v>
+        <v>42.26405199212765</v>
       </c>
       <c r="I17" t="n">
         <v>159.1001942562189</v>
       </c>
       <c r="J17" t="n">
-        <v>350.2608160885482</v>
+        <v>350.2608160885484</v>
       </c>
       <c r="K17" t="n">
-        <v>524.9501675668114</v>
+        <v>524.9501675668116</v>
       </c>
       <c r="L17" t="n">
-        <v>651.2471021357436</v>
+        <v>651.2471021357439</v>
       </c>
       <c r="M17" t="n">
-        <v>724.6378830086838</v>
+        <v>724.6378830086842</v>
       </c>
       <c r="N17" t="n">
-        <v>736.3632815413467</v>
+        <v>736.3632815413471</v>
       </c>
       <c r="O17" t="n">
-        <v>695.3269659551908</v>
+        <v>695.3269659551911</v>
       </c>
       <c r="P17" t="n">
-        <v>593.4454784848476</v>
+        <v>593.445478484848</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.652839698755</v>
+        <v>445.6528396987551</v>
       </c>
       <c r="R17" t="n">
-        <v>259.2329311315014</v>
+        <v>259.2329311315015</v>
       </c>
       <c r="S17" t="n">
-        <v>94.04048185237242</v>
+        <v>94.04048185237247</v>
       </c>
       <c r="T17" t="n">
-        <v>18.0652642592983</v>
+        <v>18.06526425929831</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3301476049671875</v>
+        <v>0.3301476049671876</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.208056770720997</v>
+        <v>2.208056770720998</v>
       </c>
       <c r="H18" t="n">
         <v>21.3251798645949</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02300723754311</v>
+        <v>76.02300723754314</v>
       </c>
       <c r="J18" t="n">
-        <v>208.6129425355307</v>
+        <v>208.6129425355308</v>
       </c>
       <c r="K18" t="n">
-        <v>356.5527461738375</v>
+        <v>356.5527461738377</v>
       </c>
       <c r="L18" t="n">
-        <v>479.4291685725569</v>
+        <v>479.4291685725571</v>
       </c>
       <c r="M18" t="n">
-        <v>559.4712265111929</v>
+        <v>559.4712265111932</v>
       </c>
       <c r="N18" t="n">
-        <v>574.2787651183527</v>
+        <v>574.2787651183529</v>
       </c>
       <c r="O18" t="n">
-        <v>525.3528756197453</v>
+        <v>525.3528756197455</v>
       </c>
       <c r="P18" t="n">
-        <v>421.6419986125034</v>
+        <v>421.6419986125036</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.8565098906312</v>
+        <v>281.8565098906313</v>
       </c>
       <c r="R18" t="n">
-        <v>137.093208975116</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S18" t="n">
-        <v>41.01368607019042</v>
+        <v>41.01368607019045</v>
       </c>
       <c r="T18" t="n">
-        <v>8.900018299528927</v>
+        <v>8.900018299528933</v>
       </c>
       <c r="U18" t="n">
         <v>0.145266892810592</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.851160623138253</v>
+        <v>1.851160623138254</v>
       </c>
       <c r="H19" t="n">
-        <v>16.45850081299284</v>
+        <v>16.45850081299285</v>
       </c>
       <c r="I19" t="n">
-        <v>55.66944855764857</v>
+        <v>55.66944855764859</v>
       </c>
       <c r="J19" t="n">
         <v>130.8770560558745</v>
       </c>
       <c r="K19" t="n">
-        <v>215.0712069427897</v>
+        <v>215.0712069427898</v>
       </c>
       <c r="L19" t="n">
-        <v>275.2170984618454</v>
+        <v>275.2170984618455</v>
       </c>
       <c r="M19" t="n">
-        <v>290.1778420433899</v>
+        <v>290.1778420433901</v>
       </c>
       <c r="N19" t="n">
-        <v>283.2780615389657</v>
+        <v>283.2780615389659</v>
       </c>
       <c r="O19" t="n">
-        <v>261.6531397141234</v>
+        <v>261.6531397141235</v>
       </c>
       <c r="P19" t="n">
-        <v>223.8894630021028</v>
+        <v>223.8894630021029</v>
       </c>
       <c r="Q19" t="n">
         <v>155.0094590884223</v>
       </c>
       <c r="R19" t="n">
-        <v>83.23491310947088</v>
+        <v>83.23491310947092</v>
       </c>
       <c r="S19" t="n">
-        <v>32.26068104141845</v>
+        <v>32.26068104141847</v>
       </c>
       <c r="T19" t="n">
-        <v>7.909504480681624</v>
+        <v>7.909504480681628</v>
       </c>
       <c r="U19" t="n">
         <v>0.100972397625723</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.126845062089844</v>
+        <v>4.126845062089846</v>
       </c>
       <c r="H20" t="n">
-        <v>42.26405199212763</v>
+        <v>42.26405199212765</v>
       </c>
       <c r="I20" t="n">
         <v>159.1001942562189</v>
       </c>
       <c r="J20" t="n">
-        <v>350.2608160885482</v>
+        <v>350.2608160885484</v>
       </c>
       <c r="K20" t="n">
-        <v>524.9501675668114</v>
+        <v>524.9501675668116</v>
       </c>
       <c r="L20" t="n">
-        <v>651.2471021357436</v>
+        <v>651.2471021357439</v>
       </c>
       <c r="M20" t="n">
-        <v>724.6378830086838</v>
+        <v>724.6378830086842</v>
       </c>
       <c r="N20" t="n">
-        <v>736.3632815413467</v>
+        <v>736.3632815413471</v>
       </c>
       <c r="O20" t="n">
-        <v>695.3269659551908</v>
+        <v>695.3269659551911</v>
       </c>
       <c r="P20" t="n">
-        <v>593.4454784848476</v>
+        <v>593.445478484848</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.652839698755</v>
+        <v>445.6528396987551</v>
       </c>
       <c r="R20" t="n">
-        <v>259.2329311315014</v>
+        <v>259.2329311315015</v>
       </c>
       <c r="S20" t="n">
-        <v>94.04048185237242</v>
+        <v>94.04048185237247</v>
       </c>
       <c r="T20" t="n">
-        <v>18.0652642592983</v>
+        <v>18.06526425929831</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3301476049671875</v>
+        <v>0.3301476049671876</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.208056770720997</v>
+        <v>2.208056770720998</v>
       </c>
       <c r="H21" t="n">
         <v>21.3251798645949</v>
       </c>
       <c r="I21" t="n">
-        <v>76.02300723754311</v>
+        <v>76.02300723754314</v>
       </c>
       <c r="J21" t="n">
-        <v>208.6129425355307</v>
+        <v>208.6129425355308</v>
       </c>
       <c r="K21" t="n">
-        <v>356.5527461738375</v>
+        <v>356.5527461738377</v>
       </c>
       <c r="L21" t="n">
-        <v>479.4291685725569</v>
+        <v>479.4291685725571</v>
       </c>
       <c r="M21" t="n">
-        <v>559.4712265111929</v>
+        <v>559.4712265111932</v>
       </c>
       <c r="N21" t="n">
-        <v>574.2787651183527</v>
+        <v>574.2787651183529</v>
       </c>
       <c r="O21" t="n">
-        <v>525.3528756197453</v>
+        <v>525.3528756197455</v>
       </c>
       <c r="P21" t="n">
-        <v>421.6419986125034</v>
+        <v>421.6419986125036</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.8565098906312</v>
+        <v>281.8565098906313</v>
       </c>
       <c r="R21" t="n">
-        <v>137.093208975116</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S21" t="n">
-        <v>41.01368607019042</v>
+        <v>41.01368607019045</v>
       </c>
       <c r="T21" t="n">
-        <v>8.900018299528927</v>
+        <v>8.900018299528933</v>
       </c>
       <c r="U21" t="n">
         <v>0.145266892810592</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851160623138253</v>
+        <v>1.851160623138254</v>
       </c>
       <c r="H22" t="n">
-        <v>16.45850081299284</v>
+        <v>16.45850081299285</v>
       </c>
       <c r="I22" t="n">
-        <v>55.66944855764857</v>
+        <v>55.66944855764859</v>
       </c>
       <c r="J22" t="n">
         <v>130.8770560558745</v>
       </c>
       <c r="K22" t="n">
-        <v>215.0712069427897</v>
+        <v>215.0712069427898</v>
       </c>
       <c r="L22" t="n">
-        <v>275.2170984618454</v>
+        <v>275.2170984618455</v>
       </c>
       <c r="M22" t="n">
-        <v>290.1778420433899</v>
+        <v>290.1778420433901</v>
       </c>
       <c r="N22" t="n">
-        <v>283.2780615389657</v>
+        <v>283.2780615389659</v>
       </c>
       <c r="O22" t="n">
-        <v>261.6531397141234</v>
+        <v>261.6531397141235</v>
       </c>
       <c r="P22" t="n">
-        <v>223.8894630021028</v>
+        <v>223.8894630021029</v>
       </c>
       <c r="Q22" t="n">
         <v>155.0094590884223</v>
       </c>
       <c r="R22" t="n">
-        <v>83.23491310947088</v>
+        <v>83.23491310947092</v>
       </c>
       <c r="S22" t="n">
-        <v>32.26068104141845</v>
+        <v>32.26068104141847</v>
       </c>
       <c r="T22" t="n">
-        <v>7.909504480681624</v>
+        <v>7.909504480681628</v>
       </c>
       <c r="U22" t="n">
         <v>0.100972397625723</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2149115618619</v>
+        <v>169.2149115618621</v>
       </c>
       <c r="K11" t="n">
-        <v>304.8603165218308</v>
+        <v>304.8603165218311</v>
       </c>
       <c r="L11" t="n">
-        <v>415.4806871657564</v>
+        <v>415.4806871657567</v>
       </c>
       <c r="M11" t="n">
-        <v>494.2916497814111</v>
+        <v>494.2916497814115</v>
       </c>
       <c r="N11" t="n">
-        <v>506.9502179447558</v>
+        <v>506.9502179447562</v>
       </c>
       <c r="O11" t="n">
-        <v>465.228754533504</v>
+        <v>465.2287545335043</v>
       </c>
       <c r="P11" t="n">
-        <v>362.2124827295781</v>
+        <v>362.2124827295784</v>
       </c>
       <c r="Q11" t="n">
-        <v>223.3471498243055</v>
+        <v>223.3471498243057</v>
       </c>
       <c r="R11" t="n">
-        <v>43.64739331736928</v>
+        <v>43.64739331736939</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.77531586886403</v>
+        <v>81.77531586886414</v>
       </c>
       <c r="K12" t="n">
-        <v>218.7113071994785</v>
+        <v>218.7113071994787</v>
       </c>
       <c r="L12" t="n">
-        <v>340.8747887926827</v>
+        <v>340.8747887926829</v>
       </c>
       <c r="M12" t="n">
-        <v>417.3371925891745</v>
+        <v>417.3371925891749</v>
       </c>
       <c r="N12" t="n">
-        <v>442.9370530350194</v>
+        <v>442.9370530350196</v>
       </c>
       <c r="O12" t="n">
-        <v>382.7566311753009</v>
+        <v>382.7566311753011</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6675911981732</v>
+        <v>287.6675911981733</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.8747358046097</v>
+        <v>141.8747358046098</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>82.8818579536576</v>
+        <v>82.88185795365749</v>
       </c>
       <c r="K13" t="n">
         <v>238.1656971313627</v>
       </c>
       <c r="L13" t="n">
-        <v>348.1711057366175</v>
+        <v>348.1711057366174</v>
       </c>
       <c r="M13" t="n">
         <v>375.1257010196864</v>
       </c>
       <c r="N13" t="n">
-        <v>372.7742159326502</v>
+        <v>372.7742159326503</v>
       </c>
       <c r="O13" t="n">
-        <v>331.602249642619</v>
+        <v>331.6022496426189</v>
       </c>
       <c r="P13" t="n">
-        <v>266.5320042814522</v>
+        <v>266.5320042814521</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.2113978511838</v>
+        <v>114.2113978511837</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2149115618619</v>
+        <v>169.2149115618621</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8603165218308</v>
+        <v>304.8603165218311</v>
       </c>
       <c r="L14" t="n">
-        <v>415.4806871657564</v>
+        <v>415.4806871657567</v>
       </c>
       <c r="M14" t="n">
-        <v>494.2916497814111</v>
+        <v>494.2916497814115</v>
       </c>
       <c r="N14" t="n">
-        <v>506.9502179447558</v>
+        <v>506.9502179447562</v>
       </c>
       <c r="O14" t="n">
-        <v>465.228754533504</v>
+        <v>465.2287545335043</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2124827295781</v>
+        <v>362.2124827295784</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.3471498243055</v>
+        <v>223.3471498243057</v>
       </c>
       <c r="R14" t="n">
-        <v>43.64739331736928</v>
+        <v>43.64739331736939</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.77531586886403</v>
+        <v>81.77531586886414</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7113071994785</v>
+        <v>218.7113071994787</v>
       </c>
       <c r="L15" t="n">
-        <v>340.8747887926827</v>
+        <v>340.8747887926829</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3371925891745</v>
+        <v>417.3371925891749</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9370530350194</v>
+        <v>442.9370530350196</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7566311753009</v>
+        <v>382.7566311753011</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6675911981732</v>
+        <v>287.6675911981733</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.8747358046097</v>
+        <v>141.8747358046098</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8818579536576</v>
+        <v>82.8818579536574</v>
       </c>
       <c r="K16" t="n">
-        <v>238.1656971313627</v>
+        <v>238.1656971313626</v>
       </c>
       <c r="L16" t="n">
-        <v>348.1711057366175</v>
+        <v>348.1711057366173</v>
       </c>
       <c r="M16" t="n">
-        <v>375.1257010196864</v>
+        <v>375.1257010196863</v>
       </c>
       <c r="N16" t="n">
         <v>372.7742159326502</v>
       </c>
       <c r="O16" t="n">
-        <v>331.602249642619</v>
+        <v>331.6022496426188</v>
       </c>
       <c r="P16" t="n">
-        <v>266.5320042814522</v>
+        <v>266.532004281452</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.2113978511838</v>
+        <v>114.2113978511836</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2149115618619</v>
+        <v>169.2149115618621</v>
       </c>
       <c r="K17" t="n">
-        <v>304.8603165218308</v>
+        <v>304.8603165218311</v>
       </c>
       <c r="L17" t="n">
-        <v>415.4806871657564</v>
+        <v>415.4806871657567</v>
       </c>
       <c r="M17" t="n">
-        <v>494.2916497814111</v>
+        <v>494.2916497814115</v>
       </c>
       <c r="N17" t="n">
-        <v>506.9502179447558</v>
+        <v>506.9502179447562</v>
       </c>
       <c r="O17" t="n">
-        <v>465.228754533504</v>
+        <v>465.2287545335043</v>
       </c>
       <c r="P17" t="n">
-        <v>362.2124827295781</v>
+        <v>362.2124827295784</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.3471498243055</v>
+        <v>223.3471498243057</v>
       </c>
       <c r="R17" t="n">
-        <v>43.64739331736928</v>
+        <v>43.64739331736939</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>81.77531586886403</v>
+        <v>81.77531586886414</v>
       </c>
       <c r="K18" t="n">
-        <v>218.7113071994785</v>
+        <v>218.7113071994787</v>
       </c>
       <c r="L18" t="n">
-        <v>340.8747887926827</v>
+        <v>340.8747887926829</v>
       </c>
       <c r="M18" t="n">
-        <v>417.3371925891745</v>
+        <v>417.3371925891749</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9370530350194</v>
+        <v>442.9370530350196</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7566311753009</v>
+        <v>382.7566311753011</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6675911981732</v>
+        <v>287.6675911981733</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.8747358046097</v>
+        <v>141.8747358046098</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>129.8569945722502</v>
+        <v>96.22075324952674</v>
       </c>
       <c r="K19" t="n">
-        <v>178.3970674053028</v>
+        <v>216.9332529756477</v>
       </c>
       <c r="L19" t="n">
         <v>232.6715408136556</v>
       </c>
       <c r="M19" t="n">
-        <v>248.4911209764513</v>
+        <v>243.5911767288333</v>
       </c>
       <c r="N19" t="n">
         <v>247.931635706781</v>
       </c>
       <c r="O19" t="n">
-        <v>215.5357198953291</v>
+        <v>215.535719895329</v>
       </c>
       <c r="P19" t="n">
-        <v>178.5005775860037</v>
+        <v>178.5005775860036</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.8435760920249</v>
+        <v>95.84357609202482</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.2149115618619</v>
+        <v>169.2149115618621</v>
       </c>
       <c r="K20" t="n">
-        <v>304.8603165218308</v>
+        <v>304.8603165218311</v>
       </c>
       <c r="L20" t="n">
-        <v>415.4806871657564</v>
+        <v>415.4806871657567</v>
       </c>
       <c r="M20" t="n">
-        <v>494.2916497814111</v>
+        <v>494.2916497814115</v>
       </c>
       <c r="N20" t="n">
-        <v>506.9502179447558</v>
+        <v>506.9502179447562</v>
       </c>
       <c r="O20" t="n">
-        <v>465.228754533504</v>
+        <v>465.2287545335043</v>
       </c>
       <c r="P20" t="n">
-        <v>362.2124827295781</v>
+        <v>362.2124827295784</v>
       </c>
       <c r="Q20" t="n">
-        <v>223.3471498243055</v>
+        <v>223.3471498243057</v>
       </c>
       <c r="R20" t="n">
-        <v>43.64739331736928</v>
+        <v>43.64739331736939</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.77531586886403</v>
+        <v>81.77531586886414</v>
       </c>
       <c r="K21" t="n">
-        <v>218.7113071994785</v>
+        <v>218.7113071994787</v>
       </c>
       <c r="L21" t="n">
-        <v>340.8747887926827</v>
+        <v>340.8747887926829</v>
       </c>
       <c r="M21" t="n">
-        <v>417.3371925891745</v>
+        <v>417.3371925891749</v>
       </c>
       <c r="N21" t="n">
-        <v>442.9370530350194</v>
+        <v>442.9370530350196</v>
       </c>
       <c r="O21" t="n">
-        <v>382.7566311753009</v>
+        <v>382.7566311753011</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6675911981732</v>
+        <v>287.6675911981733</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.8747358046097</v>
+        <v>141.8747358046098</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.22075324952685</v>
+        <v>96.22075324952674</v>
       </c>
       <c r="K22" t="n">
-        <v>178.3970674053028</v>
+        <v>178.3970674053027</v>
       </c>
       <c r="L22" t="n">
         <v>232.6715408136556</v>
       </c>
       <c r="M22" t="n">
-        <v>243.5911767288334</v>
+        <v>243.5911767288333</v>
       </c>
       <c r="N22" t="n">
-        <v>247.931635706781</v>
+        <v>286.467821277126</v>
       </c>
       <c r="O22" t="n">
-        <v>215.5357198953291</v>
+        <v>215.535719895329</v>
       </c>
       <c r="P22" t="n">
-        <v>217.0367631563448</v>
+        <v>178.5005775860036</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.8435760920249</v>
+        <v>95.84357609202482</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>531.9480598374837</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>628.6597808580595</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.2812939233914</v>
+        <v>104.2812939233912</v>
       </c>
       <c r="K25" t="n">
-        <v>191.6430118327155</v>
+        <v>191.6430118327153</v>
       </c>
       <c r="L25" t="n">
-        <v>249.6217892616922</v>
+        <v>249.621789261692</v>
       </c>
       <c r="M25" t="n">
-        <v>261.4628371170867</v>
+        <v>261.4628371170865</v>
       </c>
       <c r="N25" t="n">
-        <v>265.3783479561268</v>
+        <v>265.3783479561266</v>
       </c>
       <c r="O25" t="n">
-        <v>231.6505824898058</v>
+        <v>231.6505824898056</v>
       </c>
       <c r="P25" t="n">
-        <v>105.459346962054</v>
+        <v>192.2896264641176</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.3903987931907</v>
+        <v>18.56011929113091</v>
       </c>
       <c r="R25" t="n">
-        <v>3.406965963001156</v>
+        <v>3.406965963000971</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>502.5652510109245</v>
       </c>
       <c r="M26" t="n">
-        <v>585.896252448819</v>
+        <v>882.0705258951949</v>
       </c>
       <c r="N26" t="n">
         <v>599.2769720315039</v>
@@ -36610,7 +36610,7 @@
         <v>555.0281375068116</v>
       </c>
       <c r="P26" t="n">
-        <v>741.9113962843404</v>
+        <v>445.7371228379642</v>
       </c>
       <c r="Q26" t="n">
         <v>297.769441422312</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629116</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36765,7 +36765,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36826,13 +36826,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.398206845666607</v>
+        <v>5.398206845666579</v>
       </c>
       <c r="J29" t="n">
         <v>237.7621375873051</v>
       </c>
       <c r="K29" t="n">
-        <v>384.1664231739929</v>
+        <v>614.6242767473868</v>
       </c>
       <c r="L29" t="n">
         <v>502.5652510109245</v>
@@ -36841,7 +36841,7 @@
         <v>585.896252448819</v>
       </c>
       <c r="N29" t="n">
-        <v>683.1362548179751</v>
+        <v>599.2769720315039</v>
       </c>
       <c r="O29" t="n">
         <v>555.0281375068116</v>
@@ -36850,10 +36850,10 @@
         <v>445.7371228379642</v>
       </c>
       <c r="Q29" t="n">
-        <v>510.0844320822167</v>
+        <v>297.769441422312</v>
       </c>
       <c r="R29" t="n">
-        <v>106.5883351608173</v>
+        <v>172.3047550337997</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.398206845666635</v>
+        <v>5.398206845666579</v>
       </c>
       <c r="J32" t="n">
         <v>237.7621375873051</v>
       </c>
       <c r="K32" t="n">
-        <v>384.166423173993</v>
+        <v>384.1664231739929</v>
       </c>
       <c r="L32" t="n">
-        <v>502.5652510109246</v>
+        <v>502.5652510109245</v>
       </c>
       <c r="M32" t="n">
-        <v>585.8962524488192</v>
+        <v>585.896252448819</v>
       </c>
       <c r="N32" t="n">
-        <v>895.4512454778794</v>
+        <v>599.2769720315039</v>
       </c>
       <c r="O32" t="n">
-        <v>555.0281375068116</v>
+        <v>851.2024109531876</v>
       </c>
       <c r="P32" t="n">
-        <v>445.7371228379643</v>
+        <v>445.7371228379642</v>
       </c>
       <c r="Q32" t="n">
-        <v>297.7694414223121</v>
+        <v>297.769441422312</v>
       </c>
       <c r="R32" t="n">
         <v>106.5883351608173</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165753</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.27060879450207</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>259.4525302035625</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J40" t="n">
-        <v>89.60290861276886</v>
+        <v>88.27060879450326</v>
       </c>
       <c r="K40" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
@@ -37947,16 +37947,16 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>259.4525302035622</v>
+        <v>259.4525302035631</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38169,25 +38169,25 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266883</v>
+        <v>1.332299818266925</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>88.2706087945015</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>233.6111041328033</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591743</v>
@@ -38196,7 +38196,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
